--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Conformidade</t>
   </si>
@@ -43,7 +43,7 @@
     <t>O artefato é mantido atualizado?</t>
   </si>
   <si>
-    <t>- Documento possui histórico de versionamento</t>
+    <t>- Documento possui histórico de versionamento preenchido</t>
   </si>
   <si>
     <t>A definir</t>
@@ -99,6 +99,10 @@
 dos testes?</t>
   </si>
   <si>
+    <t>- Documento informa o objetivo da técnica, a estratégia utilizada,
+as ferramentas necessárias e os critérios de êxito</t>
+  </si>
+  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -114,26 +118,58 @@
     <t>O artefato define critérios de execução para os testes?</t>
   </si>
   <si>
+    <t>- Documento contém informações sobre o critério que define a 
+cobertura dos testes para cada tipo de teste e o que leva ao reteste</t>
+  </si>
+  <si>
     <t>O artefato define critérios de interupção para os testes?</t>
   </si>
   <si>
+    <t>- Documento especifica as situações em que os testes devem
+ser interrompidos</t>
+  </si>
+  <si>
     <t>O artefato define critérios de continuação para os testes?</t>
   </si>
   <si>
+    <t>- Documento especifica as situações em que os testes devem
+ser retomados</t>
+  </si>
+  <si>
     <t>São informados os artefatos gerados pelo plano de testes?</t>
   </si>
   <si>
+    <t>- Documento lista os artefatos gerados ao concluir o plano de
+teste</t>
+  </si>
+  <si>
     <t>O artefato informa o ambiente de testes que será utilizado?</t>
   </si>
   <si>
+    <t>- Documento lista o nome e versão de cada software que
+será necessário para a realização dos testes</t>
+  </si>
+  <si>
     <t>O artefato possui um processo definido para a realização dos testes?</t>
+  </si>
+  <si>
+    <t>- Documento contém a modelagem do processo utilizado
+para a realização dos testes</t>
   </si>
   <si>
     <t>O artefato informa a distrubuição de papéis para as tarefas a serem
 realizadas?</t>
   </si>
   <si>
+    <t>- Documento contém informações sobre os papéis responsáveis
+por cada tipo de tarefa</t>
+  </si>
+  <si>
     <t>O artefato possui um cronograma definido?</t>
+  </si>
+  <si>
+    <t>- Documento contém informações sobre a data de início
+e o prazo de conclusão para cada tarefa</t>
   </si>
 </sst>
 </file>
@@ -844,7 +880,9 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
@@ -852,10 +890,10 @@
         <v>11</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" s="13"/>
     </row>
@@ -873,10 +911,10 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="N12" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12" s="13"/>
     </row>
@@ -891,12 +929,14 @@
         <v>8</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
@@ -929,12 +969,14 @@
         <v>8</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
@@ -967,12 +1009,14 @@
         <v>8</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
@@ -1005,12 +1049,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
@@ -1043,12 +1089,14 @@
         <v>8</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
@@ -1081,12 +1129,14 @@
         <v>8</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
@@ -1119,12 +1169,14 @@
         <v>8</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
@@ -1157,12 +1209,14 @@
         <v>8</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
@@ -2176,36 +2230,34 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:G6"/>
     <mergeCell ref="H5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="H7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
     <mergeCell ref="H9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D27:G28"/>
     <mergeCell ref="H27:K28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:G26"/>
     <mergeCell ref="H25:K26"/>
     <mergeCell ref="L25:L26"/>
@@ -2221,38 +2273,40 @@
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="H11:K12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:G20"/>
     <mergeCell ref="H19:K20"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:G22"/>
     <mergeCell ref="H21:K22"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:G24"/>
     <mergeCell ref="H23:K24"/>
     <mergeCell ref="L23:L24"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 L5 L7 L9 L11 L13 L15 L17 L19 L21 L23 L25 L27">
